--- a/data/trans_dic/P25C$pormicuenta_2023-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P25C$pormicuenta_2023-Provincia-trans_dic.xlsx
@@ -564,13 +564,13 @@
         </is>
       </c>
       <c r="C4" s="5" t="n">
-        <v>0.9828199505197587</v>
+        <v>0.9828199505197588</v>
       </c>
       <c r="D4" s="5" t="n">
         <v>0.9554305229651364</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>0.9773959008530513</v>
+        <v>0.9773959008530512</v>
       </c>
     </row>
     <row r="5">
@@ -581,13 +581,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.9145113349651338</v>
+        <v>0.9135115587896602</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.7829209423041378</v>
+        <v>0.779078030706322</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.9139550774215529</v>
+        <v>0.9167119306999559</v>
       </c>
     </row>
     <row r="6">
@@ -619,13 +619,13 @@
         </is>
       </c>
       <c r="C7" s="5" t="n">
-        <v>0.7855032382591295</v>
+        <v>0.7855032382591294</v>
       </c>
       <c r="D7" s="5" t="n">
-        <v>0.8948805040200669</v>
+        <v>0.894880504020067</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>0.8248896154313132</v>
+        <v>0.8248896154313131</v>
       </c>
     </row>
     <row r="8">
@@ -636,13 +636,13 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.7000626623845838</v>
+        <v>0.6997857078212023</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.816040948548544</v>
+        <v>0.8110220197636807</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.7639818403103392</v>
+        <v>0.7587452474876597</v>
       </c>
     </row>
     <row r="9">
@@ -653,13 +653,13 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.8538340336677804</v>
+        <v>0.8638492262134013</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.9450243665927222</v>
+        <v>0.9466236290784605</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.877086260283055</v>
+        <v>0.8762187960863232</v>
       </c>
     </row>
     <row r="10">
@@ -674,10 +674,10 @@
         </is>
       </c>
       <c r="C10" s="5" t="n">
-        <v>0.9458049636718742</v>
+        <v>0.9458049636718744</v>
       </c>
       <c r="D10" s="5" t="n">
-        <v>0.8992545197168541</v>
+        <v>0.8992545197168542</v>
       </c>
       <c r="E10" s="5" t="n">
         <v>0.92611091622299</v>
@@ -691,13 +691,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.8567857924985801</v>
+        <v>0.8753885956630909</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.8130041616713151</v>
+        <v>0.8173645611243958</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.8733270396397762</v>
+        <v>0.8763442668769095</v>
       </c>
     </row>
     <row r="12">
@@ -708,13 +708,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.9856092548119912</v>
+        <v>0.9855900920573644</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.9523438326244135</v>
+        <v>0.9547314728643727</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.9575884983181825</v>
+        <v>0.9599048206954828</v>
       </c>
     </row>
     <row r="13">
@@ -729,7 +729,7 @@
         </is>
       </c>
       <c r="C13" s="5" t="n">
-        <v>0.8212629183792829</v>
+        <v>0.8212629183792831</v>
       </c>
       <c r="D13" s="5" t="n">
         <v>0.8994894733501178</v>
@@ -746,13 +746,13 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.7152637357513828</v>
+        <v>0.7210150158306486</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.8297159818689266</v>
+        <v>0.826290959289502</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.7821570816042637</v>
+        <v>0.7754360170808693</v>
       </c>
     </row>
     <row r="15">
@@ -763,13 +763,13 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.8869715697814124</v>
+        <v>0.8916199545039322</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.9462999510592136</v>
+        <v>0.9451228954051817</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.8987635062860975</v>
+        <v>0.8989316892735806</v>
       </c>
     </row>
     <row r="16">
@@ -802,10 +802,10 @@
       </c>
       <c r="C17" s="5" t="inlineStr"/>
       <c r="D17" s="5" t="n">
-        <v>0.7405178098948976</v>
+        <v>0.7496516573774611</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.9180827970947892</v>
+        <v>0.9050232730925842</v>
       </c>
     </row>
     <row r="18">
@@ -841,7 +841,7 @@
         <v>1</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>0.9641334587606718</v>
+        <v>0.9641334587606717</v>
       </c>
     </row>
     <row r="20">
@@ -852,11 +852,11 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.8946156881974499</v>
+        <v>0.8940982832763444</v>
       </c>
       <c r="D20" s="5" t="inlineStr"/>
       <c r="E20" s="5" t="n">
-        <v>0.9097811508558411</v>
+        <v>0.9107429815677438</v>
       </c>
     </row>
     <row r="21">
@@ -867,11 +867,11 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.9879679560525575</v>
+        <v>0.9893258206436635</v>
       </c>
       <c r="D21" s="5" t="inlineStr"/>
       <c r="E21" s="5" t="n">
-        <v>0.9905796368483425</v>
+        <v>0.9911808934676064</v>
       </c>
     </row>
     <row r="22">
@@ -892,7 +892,7 @@
         <v>0.8882693807384696</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>0.9214463444577145</v>
+        <v>0.9214463444577143</v>
       </c>
     </row>
     <row r="23">
@@ -903,13 +903,13 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.89319761570286</v>
+        <v>0.9035182680486118</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.82798535618642</v>
+        <v>0.8338300293323808</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.8848126644670405</v>
+        <v>0.8879631581309574</v>
       </c>
     </row>
     <row r="24">
@@ -920,13 +920,13 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.975024622843875</v>
+        <v>0.9750668818766954</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.9306797857394348</v>
+        <v>0.9357723841293186</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.9478029394905692</v>
+        <v>0.9473797789471338</v>
       </c>
     </row>
     <row r="25">
@@ -944,7 +944,7 @@
         <v>0.905237523769609</v>
       </c>
       <c r="D25" s="5" t="n">
-        <v>0.9053982247657976</v>
+        <v>0.9053982247657977</v>
       </c>
       <c r="E25" s="5" t="n">
         <v>0.9052825828908481</v>
@@ -958,13 +958,13 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.8350076049379933</v>
+        <v>0.8550040632601106</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>0.8075758177536254</v>
+        <v>0.8155414886428848</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.8580570051174605</v>
+        <v>0.8602176177775913</v>
       </c>
     </row>
     <row r="27">
@@ -975,13 +975,13 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.945162331993216</v>
+        <v>0.9521408110666095</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.9591726639788809</v>
+        <v>0.9679390245246563</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.9387098286637019</v>
+        <v>0.9405170672037929</v>
       </c>
     </row>
     <row r="28">
@@ -1013,13 +1013,13 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>0.8679674533782626</v>
+        <v>0.8670308574323653</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>0.8735816153412042</v>
+        <v>0.8762292197343785</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>0.8795726797158098</v>
+        <v>0.8795757053328891</v>
       </c>
     </row>
     <row r="30">
@@ -1030,13 +1030,13 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>0.9169416397889747</v>
+        <v>0.9164981926433304</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>0.9254627508654043</v>
+        <v>0.9266796079388769</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>0.9141870674529152</v>
+        <v>0.9143024162964509</v>
       </c>
     </row>
     <row r="31">
@@ -1182,13 +1182,13 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>46056</v>
+        <v>46005</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>9736</v>
+        <v>9689</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>57394</v>
+        <v>57567</v>
       </c>
     </row>
     <row r="7">
@@ -1254,13 +1254,13 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>83031</v>
+        <v>82998</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>54465</v>
+        <v>54130</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>141603</v>
+        <v>140632</v>
       </c>
     </row>
     <row r="11">
@@ -1271,13 +1271,13 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>101269</v>
+        <v>102457</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>63074</v>
+        <v>63181</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>162566</v>
+        <v>162405</v>
       </c>
     </row>
     <row r="12">
@@ -1326,13 +1326,13 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>57994</v>
+        <v>59253</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>40354</v>
+        <v>40571</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>102462</v>
+        <v>102816</v>
       </c>
     </row>
     <row r="15">
@@ -1343,13 +1343,13 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>66714</v>
+        <v>66713</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>47271</v>
+        <v>47389</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>112348</v>
+        <v>112620</v>
       </c>
     </row>
     <row r="16">
@@ -1398,13 +1398,13 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>76841</v>
+        <v>77459</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>54010</v>
+        <v>53787</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>134942</v>
+        <v>133782</v>
       </c>
     </row>
     <row r="19">
@@ -1415,13 +1415,13 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>95288</v>
+        <v>95788</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>61598</v>
+        <v>61522</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>155059</v>
+        <v>155088</v>
       </c>
     </row>
     <row r="20">
@@ -1471,10 +1471,10 @@
       </c>
       <c r="C22" s="6" t="inlineStr"/>
       <c r="D22" s="6" t="n">
-        <v>6540</v>
+        <v>6621</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>22520</v>
+        <v>22199</v>
       </c>
     </row>
     <row r="23">
@@ -1538,11 +1538,11 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>39843</v>
+        <v>39820</v>
       </c>
       <c r="D26" s="6" t="inlineStr"/>
       <c r="E26" s="6" t="n">
-        <v>50980</v>
+        <v>51034</v>
       </c>
     </row>
     <row r="27">
@@ -1553,11 +1553,11 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>44000</v>
+        <v>44061</v>
       </c>
       <c r="D27" s="6" t="inlineStr"/>
       <c r="E27" s="6" t="n">
-        <v>55508</v>
+        <v>55542</v>
       </c>
     </row>
     <row r="28">
@@ -1606,13 +1606,13 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>127155</v>
+        <v>128624</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>88932</v>
+        <v>89560</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>220997</v>
+        <v>221784</v>
       </c>
     </row>
     <row r="31">
@@ -1623,13 +1623,13 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>138804</v>
+        <v>138810</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>99962</v>
+        <v>100509</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>236730</v>
+        <v>236624</v>
       </c>
     </row>
     <row r="32">
@@ -1678,13 +1678,13 @@
         </is>
       </c>
       <c r="C34" s="6" t="n">
-        <v>94808</v>
+        <v>97079</v>
       </c>
       <c r="D34" s="6" t="n">
-        <v>35728</v>
+        <v>36080</v>
       </c>
       <c r="E34" s="6" t="n">
-        <v>135387</v>
+        <v>135728</v>
       </c>
     </row>
     <row r="35">
@@ -1695,13 +1695,13 @@
         </is>
       </c>
       <c r="C35" s="6" t="n">
-        <v>107316</v>
+        <v>108108</v>
       </c>
       <c r="D35" s="6" t="n">
-        <v>42435</v>
+        <v>42823</v>
       </c>
       <c r="E35" s="6" t="n">
-        <v>148112</v>
+        <v>148398</v>
       </c>
     </row>
     <row r="36">
@@ -1750,13 +1750,13 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>573049</v>
+        <v>572430</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>319635</v>
+        <v>320604</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>902537</v>
+        <v>902541</v>
       </c>
     </row>
     <row r="39">
@@ -1767,13 +1767,13 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>605382</v>
+        <v>605090</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>338618</v>
+        <v>339063</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>938056</v>
+        <v>938174</v>
       </c>
     </row>
     <row r="40">
